--- a/documents/评测数据集.xlsx
+++ b/documents/评测数据集.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PycharmProjects\yunhailian\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sanyantan\云海链\大模型应用开发--第二轮技术面试题目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A89B0-D21A-44F2-A56F-004D760E17AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7C02C4-F2FB-43DD-A814-CC317D40EBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>宠物狗第一次进家门，应该做哪些准备？如何适应新环境？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>转人工很准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rouge-1-P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rouge-1-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rouge-1-F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -548,7 +560,7 @@
     <col min="3" max="4" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -564,8 +576,17 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="133" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="107.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +602,17 @@
       <c r="E2">
         <v>0.159</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>0.51</v>
+      </c>
+      <c r="G2">
+        <v>0.11</v>
+      </c>
+      <c r="H2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -598,8 +628,17 @@
       <c r="E3">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3">
+        <v>0.11</v>
+      </c>
+      <c r="H3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -615,8 +654,17 @@
       <c r="E4">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0.24</v>
+      </c>
+      <c r="G4">
+        <v>0.15</v>
+      </c>
+      <c r="H4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="251" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -632,8 +680,17 @@
       <c r="E5">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>0.51</v>
+      </c>
+      <c r="G5">
+        <v>0.08</v>
+      </c>
+      <c r="H5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -644,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -660,8 +717,17 @@
       <c r="E7">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>0.6</v>
+      </c>
+      <c r="G7">
+        <v>0.11</v>
+      </c>
+      <c r="H7">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -677,8 +743,17 @@
       <c r="E8">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
